--- a/Interface/Case/imooc.xlsx
+++ b/Interface/Case/imooc.xlsx
@@ -1,171 +1,238 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAN\.vscode\Interface\Case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDFD524-F175-41C8-842C-2184BBAF1C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{57A491BF-2BE9-430C-976B-DDB42391CBDE}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11020" windowWidth="19420" xWindow="13550" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+  <si>
+    <t>case编号</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>依赖key</t>
+  </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie操作</t>
+  </si>
+  <si>
+    <t>header操作</t>
+  </si>
+  <si>
+    <t>预期结果方式</t>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cookie操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>数据</t>
   </si>
   <si>
     <t>imooc_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取广告位</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>api3/getbanneradvertver2</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"username":"111111"}</t>
+  </si>
+  <si>
+    <t>mec</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>{"status": 0, "data": {"banner": [{"id": 2262, "type": 6, "type_id": 330, "name": "\u524d\u7aef\u4e0b\u4e00\u4ee3\u5f00\u53d1\u8bed\u8a00TypeScript  \u4ece\u57fa\u7840\u5230axios\u5b9e\u6218", "pic": "http://szimg.mukewang.com/5cf721df09fc2be500000000.jpg", "links": ""}, {"id": 1648, "type": 6, "type_id": 169, "name": "Python3\u5165\u95e8\u673a\u5668\u5b66\u4e60 \u7ecf\u5178\u7b97\u6cd5\u4e0e\u5e94\u7528", "pic": "http://szimg.mukewang.com/5d0ed2d9085bd6ed09000300.jpg", "links": ""}, {"id": 1875, "type": 6, "type_id": 316, "name": "\u4ece\u57fa\u7840\u5230\u5b9e\u6218 \u624b\u628a\u624b\u5e26\u4f60\u638c\u63e1\u65b0\u7248Webpack4.0", "pic": "http://szimg.mukewang.com/5d0ed2ca086a9e6f09000300.jpg", "links": ""}, {"id": 1999, "type": 6, "type_id": 342, "name": "\u7eaf\u6b63\u5546\u4e1a\u7ea7\u5e94\u7528 Node.js Koa2\u5f00\u53d1\u5fae\u4fe1\u5c0f\u7a0b\u5e8f\u670d\u52a1\u7aef", "pic": "http://szimg.mukewang.com/5ceb5d370955f30f09000300.jpg", "links": ""}, {"id": 2158, "type": 99, "type_id": 0, "name": "Spring Cloud\u5fae\u670d\u52a1\u5f00\u53d1\u5b9e\u8df5", "pic": "http://img2.mukewang.com/5d088c4009bbebc009000300.jpg", "links": "https://www.imooc.com/read/37"}, {"id": 1709, "type": 6, "type_id": 354, "name": "Node.js\u5f00\u53d1\u4eff\u77e5\u4e4e\u670d\u52a1\u7aef \u6df1\u5165\u7406\u89e3RESTful API", "pic": "http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg", "links": ""}], "pic": [{"pic": "http://www.imooc.com/static/img/andriod/pic/actual_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/actual_night@3x.png", "type": 2}, {"pic": "http://www.imooc.com/static/img/andriod/pic/path_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/path_night@3x.png", "type": 6}, {"pic": "http://www.imooc.com/static/img/andriod/pic/question_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/question_night@3x.png", "type": 3}, {"pic": "http://www.imooc.com/static/img/andriod/pic/note_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/note_night@3x.png", "type": 4}, {"pic": "http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png", "type": 5}]}, "errorCode": 1001, "errorDesc": "\u6210\u529f", "timestamp": 1561269343507}</t>
+  </si>
+  <si>
+    <t>imooc_002</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>imooc_001&gt;data.banner.[0].id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>api3/beta4</t>
+  </si>
+  <si>
+    <t>{"username":"111112"}</t>
   </si>
   <si>
     <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"111111"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorcode</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [{"name": "\u8bfe\u7a0b\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/recommend@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/recommend_night@3x.png", "type": 1, "list_type": 1, "operate_type": 1, "course": [{"id": "1134", "name": "\u6781\u901f\u5165\u95e8SpringCloud\u4e4bAPI\u7f51\u5173\u4e0e\u670d\u52a1\u53d1\u73b0", "short_description": "SpringCloud\u5fae\u670d\u52a1\u5b9e\u6218\uff0c\u4ece\u67b6\u6784\u5230\u7f51\u5173\u5230\u670d\u52a1\u53d1\u73b0\u3002\r\n", "pic": "http://img3.mukewang.com/5d0771a608ce48cb02000114-590-330.jpg", "numbers": "1270", "type": 1, "share": "http://www.imooc.com/learn/1134", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u521d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "1133", "name": "PHP\u52a0\u5bc6", "short_description": "\u4e3a\u4ec0\u4e48\u8981\u4f7f\u7528\u52a0\u5bc6\uff0c\u8ba9\u6211\u4eec\u5bf9\u5bc6\u7801\u5b66\u6709\u4e2a\u521d\u6b65\u7684\u8ba4\u8bc6\u3002", "pic": "http://img3.mukewang.com/5d01e4a508f8c1e706000338-590-330.jpg", "numbers": "460", "type": 1, "share": "http://www.imooc.com/learn/1133", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u4e2d\u7ea7", "skill_id": "1", "skill_name": "PHP", "skill_pic": "http://img4.mukewang.com/59c895400001280402400240.jpg", "skill_color": "5280f1", "category_pic": "http://img1.mukewang.com/5b174699000182b802400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "1", "name": "PHP"}]}, {"id": "472", "name": "Cocos2d-x\u6e38\u620f\u4e4b\u4e03\u5915\u5973\u795e\u6293\u6355\u8ba1\u5212", "short_description": "\u62ef\u6551\u9648\u65e0\u7801\u4ece\u6e38\u620f\u5f00\u53d1\u5f00\u59cb\uff0c\u5982\u679c\u4f60\u60f3\u9006\u88ad\uff0c\u90a3\u4e48\u5feb\u6765\u5b66\u4e60", "pic": "http://img3.mukewang.com/55c47a0a0001347b06000338-590-330.jpg", "numbers": "45138", "type": 1, "share": "http://www.imooc.com/learn/472", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1361", "skill_name": "Cocos2d-x", "skill_pic": "http://img4.mukewang.com/5b17497c00016bcf02400240.jpg", "skill_color": "17c5bc", "category_pic": "http://img.mukewang.com/5b1749810001b5a002400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1361", "name": "Cocos2d-x"}, {"id": "1331", "name": "C++"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "125", "name": "Web App\u4e0b\u56fe\u7247\u6ed1\u52a8\u7ec4\u4ef6\u7684\u5f00\u53d1", "short_description": "\u672c\u8bfe\u7a0b\u5c31\u662f\u8bb2\u8ff0\u4ece\u96f6\u5f00\u59cb\uff0c\u5982\u4f55\u6784\u5efa\u4e00\u4e2a\u79fb\u52a8\u7aef\u7684\u6ed1\u52a8\u7ec4\u4ef6", "pic": "http://img2.mukewang.com/5705d0d600013ea906000338-590-330.jpg", "numbers": "38332", "type": 1, "share": "http://www.imooc.com/learn/125", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1260", "skill_name": "WebApp", "skill_pic": "http://img.mukewang.com/59c896080001e08602400240.jpg", "skill_color": "ff5058", "category_pic": "http://img4.mukewang.com/5b17466a0001bc0c02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff9600", "bgcolor_end": "#b3ff9600", "skills": [{"id": "1260", "name": "WebApp"}]}]}, {"name": "\u5c31\u4e1a\u73ed", "pic": "http://www.imooc.com/static/img/andriod/icon/class@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/class_night@3x.png", "type": 7, "list_type": 2, "operate_type": 1, "course": [{"id": "67", "name": "\u96f6\u57fa\u7840Java\u5c0f\u767d\u4f53\u9a8c\u8bfe", "short_description": "", "pic": "http://climg.mukewang.com/5c8628560001189f06000338.jpg", "numbers": "1296", "courses": "4", "type": 4, "share": "http://class.imooc.com/sc/67", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "JAVA\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "9.99", "discount_type": "1", "discount_name": "\u9650\u65f6\u4fc3\u9500", "discount_price": "9.99", "discount_start_time": "0", "discount_end_time": "0", "price": 4900, "is_buy": 0}, {"id": "66", "name": "\u5165\u95e8\u4e3b\u6d41\u6846\u67b6Scrapy\u4e0e\u722c\u866b\u9879\u76ee\u5b9e\u6218", "short_description": "", "pic": "http://climg.mukewang.com/5c87804700018a9106000338.jpg", "numbers": "362", "courses": "14", "type": 4, "share": "http://class.imooc.com/sc/66", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "868", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 86800, "is_buy": 0}, {"id": "65", "name": "\u4ece\u7f51\u9875\u642d\u5efa\u5165\u95e8Python Web", "short_description": "", "pic": "http://climg.mukewang.com/5c87807700013c7906000338.jpg", "numbers": "391", "courses": "22", "type": 4, "share": "http://class.imooc.com/sc/65", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "799", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 79900, "is_buy": 0}]}, {"name": "banner\u5e7f\u544a", "pic": "", "pic_night": "", "type": 6, "list_type": 1, "operate_type": 0, "ads": [{"id": 2085, "type": 99, "type_id": 0, "name": "python", "pic": "http://img3.mukewang.com/5cd929c5099c98df10530138.jpg", "links": "https://class.imooc.com/sale/python"}]}, {"name": "\u5b9e\u6218\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/shizhan@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/shizhan_night@3x.png", "type": 2, "list_type": 1, "operate_type": 1, "course": [{"id": "187", "name": "SpringCloud  Finchley\u4e09\u7248\u672c(M2+RELEASE+SR2)\u5fae\u670d\u52a1\u5b9e\u6218", "order_type": 2, "short_description": "\u719f\u7ec3\u4f7f\u7528SpringCloud\u7ec4\u4ef6\u5b9e\u73b0\u5fae\u670d\u52a1\uff0c\u5411\u67b6\u6784\u5e08\u8fc8\u8fdb\uff01\u3010\u5df2\u5347\u7ea7\u81f3Finchley.Release\u3011", "pic": "http://img1.sycdn.imooc.com/szimg/5cb68a1408ed350506000338-360-202.jpg", "numbers": "4111", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=187", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "366", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 36600, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/187", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4737", "name": "\u5fae\u670d\u52a1"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "160", "name": "Python+Django+Ansible Playbook\u81ea\u52a8\u5316\u8fd0\u7ef4\u9879\u76ee\u5b9e\u6218", "order_type": 2, "short_description": "\u3010\u8bfe\u7a0b\u4ee3\u7801\u5347\u7ea73.6\u7248\u672c\u3011\u963f\u91cc\u5927\u725b\u5168\u9762\u8df5\u884cDevOps\uff0c\u5e26\u4f60\u5f00\u542f\u8fd0\u7ef4\u4e0e\u5f00\u53d1\u95f4\u9ad8\u6548\u534f\u4f5c\u6a21\u5f0f\uff01", "pic": "http://img1.sycdn.imooc.com/szimg/5a5334a50001d3dc05400300-360-202.jpg", "numbers": "551", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=160", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img1.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img2.mukewang.com/5b1746ed0001976102400240.jpg", "pay_price": "388", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 38800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/160", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "5207", "name": "\u81ea\u52a8\u5316\u8fd0\u7ef4"}]}, {"id": "308", "name": "Top\u56e2\u961f\u5927\u725b\u5e26\u4f60\u73a9\u8f6cAndroid\u6027\u80fd\u5206\u6790\u4e0e\u4f18\u5316", "order_type": 2, "short_description": "\u7531\u8868\u53ca\u91cc\u5b66\u5230\u56fd\u5185Top\u56e2\u961f\u5bf9\u6027\u80fd\u95ee\u9898\u7684\u4f53\u7cfb\u4f18\u5316\u65b9\u6848\u3001\u624b\u6bb5\u53ca\u4fdd\u969c\u7ecf\u9a8c", "pic": "http://img1.sycdn.imooc.com/szimg/5c26f19508ce8c8100000000-360-202.jpg", "numbers": "527", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=308", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "223", "skill_name": "Android", "skill_pic": "http://img4.mukewang.com/5b18943b00018ba502400240.jpg", "skill_color": "00b85a", "category_pic": "http://img3.mukewang.com/5b1747e50001d45c02400240.jpg", "pay_price": "288", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 28800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/308", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff00b95a", "bgcolor_end": "#b300b95a", "skills": [{"id": "223", "name": "Android"}]}, {"id": "274", "name": "MySQL\u6570\u636e\u5e93\u96c6\u7fa4-PXC\u65b9\u6848", "order_type": 2, "short_description": "\u5b66\u4e60PXC\uff0c\u6253\u9020\u9ad8\u4ef7\u503c\u7684MySQL\u96c6\u7fa4", "pic": "http://img1.sycdn.imooc.com/szimg/5b8e74ac00019f7d05400300-360-202.jpg", "numbers": "238", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=274", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "299", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 29900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/274", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}, {"id": "167", "name": "BAT\u5927\u725b\u4eb2\u6388 \u57fa\u4e8eElasticSearch\u7684\u641c\u623f\u7f51\u5b9e\u6218 ", "order_type": 2, "short_description": "ES+MySQL+Kafka\uff0c\u7ed3\u5408\u767e\u5ea6\u5730\u56fe\u3001ELK\u7b49\u5b9e\u8df5ES\u9ad8\u7ea7\u5e94\u7528\uff0c\u6253\u9020\u5f3a\u529b\u7ad9\u5185\u641c\u7d22", "pic": "http://img1.sycdn.imooc.com/szimg/5a308c9400011c1305400300-360-202.jpg", "numbers": "669", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=167", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/167", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "1359", "name": "\u5927\u6570\u636e"}]}, {"id": "208", "name": "MyCAT+MySQL\u642d\u5efa\u9ad8\u53ef\u7528\u4f01\u4e1a\u7ea7\u6570\u636e\u5e93\u96c6\u7fa4", "order_type": 2, "short_description": "\u56fd\u5185\u9876\u7ea7DBA\u4eb2\u6388\uff0c\u7cbe\u8bb2\u4f01\u4e1a\u7ea7MyCAT\u5e94\u7528\uff0c\u8be6\u89e3\u4e1a\u52a1\u6570\u636e\u5e93\u5206\u5e93\u5206\u8868\u3001\u8bfb\u5199\u5206\u79bb", "pic": "http://img1.sycdn.imooc.com/szimg/5ad5568300018ede05400300-360-202.jpg", "numbers": "455", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=208", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "199", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 19900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/208", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}]}, {"name": "\u65b0\u8bfe\u4e0a\u67b6", "pic": "http://www.imooc.com/static/img/andriod/icon/new_course@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/new_course_night@3x.png", "type": 3, "list_type": 2, "operate_type": 0, "course": [{"id": "37", "name": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff09", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "4737", "name": "\u5fae\u670d\u52a1"}], "short_description": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff091122", "numbers": "11", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5af2b85e000134d112000675-360-202.jpg", "price": 100, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/37"}, {"id": "353", "name": "\u963f\u91cc\u65b0\u96f6\u552e\u6570\u636e\u5e93\u8bbe\u8ba1\u4e0e\u5b9e\u6218 ", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "952", "name": "MySQL"}], "short_description": "\u6570\u636e\u5e93\u662f\u5f00\u53d1\u4eba\u5458\u7684\u5fc5\u4fee\u8bfe\uff0c\u89e3\u9501\u201c\u65b0\u96f6\u552e\u201d\u4e1a\u52a1\u8ba9\u6570\u636e\u5e93\u5b9e\u6218\u80fd\u529b\u518d\u4e0a\u4e00\u5c42\u697c", "numbers": "243", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d08d0b308c9749706000338-360-202.jpg", "price": 28800, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/353"}, {"id": "359", "name": "Web\u81ea\u52a8\u5316\u6d4b\u8bd5 Selenium\u57fa\u7840\u5230\u4f01\u4e1a\u5b9e\u9645\u5e94\u7528", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "5265", "name": "\u81ea\u52a8\u5316\u6d4b\u8bd5"}], "short_description": "\u6210\u4e3aWeb\u81ea\u52a8\u5316\u6d4b\u8bd5\u5de5\u7a0b\u5e08\u7684\u5fc5\u5907\u8bfe\u7a0b", "numbers": "14", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d0356e3085c9d4606000338-360-202.jpg", "price": 26600, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/359"}]}, {"name": "\u6155\u8bfe\u7cbe\u82f1\u540d\u5e08\u63a8\u8350", "pic": "", "pic_night": "", "type": 5, "list_type": 2, "operate_type": 0, "teachers": [{"uid": "2155343", "nickname": "\u626c\u5e06\u8fdc\u822a_", "aboutme": "\u62e5\u6709\u591a\u5e74\u5e26\u9886\u534e\u4e3a\u6570\u636e\u6316\u6398\u56e2\u961f\u7ed9\u5168\u4e16\u754c\u8303\u56f4\u5185\u8457\u540d\u8fd0\u8425\u5546\u63d0\u4f9b\u5927\u6570\u636e\u89e3\u51b3\u65b9\u6848\u7684\u7ecf\u9a8c\uff0c\u5de5\u4f5c\u4e2d\u6240\u5e26\u9886\u7684\u56e2\u961f\u4e3b\u8981\u8d1f\u8d23\u5904\u7406\u3001\u6316\u6398\u548c\u5206\u6790\u6bcf\u5929\u6570\u4ee5TB\u8ba1\u7684\u6570\u636e\u3002\u4f5c\u4e3a\u4e00\u4e2a\u5e26\u9886\u62e5\u670920\u4eba\u56e2\u961f\u6210\u529f\u5b8c\u6210\u591a\u4e2a\u5168\u7403\u9879\u76ee\u7684leader,\u975e\u5e38\u4e86\u89e3\u5f53\u4eca\u7528\u9014\u6700\u5e7f\u6cdb\u7684\u6570\u636e\u6316\u6398\u3001\u673a\u5668\u5b66\u4e60\u548c\u6570\u7406\u7edf\u8ba1\u65b9\u6cd5,\u540c\u65f6\u6709\u7740\u591a\u5e74\u719f\u7ec3\u5e94\u7528\u5404\u79cd\u6570\u636e\u6316\u6398\u5e73\u53f0\u5de5\u5177\u548c\u6570\u7406\u7edf\u8ba1\u5305(\u4f8b\u5982R,python\u548cSpark)\u7ecf\u9a8c\u3002", "portrait": "545850bb0001979202200220", "job_title": "\u6570\u636e\u79d1\u5b66\u5bb6", "img": "http://img1.mukewang.com/545850bb0001979202200220-100-100.jpg", "pic": "http://img1.mukewang.com/545850bb0001979202200220-370-370.jpg"}, {"uid": "4379042", "nickname": "\u7f16\u7a0b\u6d6a\u5b50", "aboutme": "\u4e92\u8054\u7f51\u642c\u7816\u5c0f\u738b\u5b50\uff0c\u4ece\u4e8b\u4e92\u8054\u7f51web \u5f00\u53d16\u5e74\uff0c\u70ed\u7231\u642c\u7816\u884c\u4e1a\uff0c\u6709\u4ee3\u7801\u6d01\u7656\uff0c\u5bf9PHP\uff0cPython\uff0cJava\u90fd\u6709\u6d89\u730e\uff0c \u5b9e\u8df5\u7ecf\u9a8c\u4e30\u5bcc\uff0c\u5bcc\u6709\u6fc0\u60c5\uff0c\u70ed\u7231\u5206\u4eab\uff0c\u4e50\u89c2\u5f00\u6717\uff0c\u559c\u6b22\u4e13\u7814\u65b0\u6280\u672f", "portrait": "583e9afa000166c410240770", "job_title": "PHP\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/583e9afa000166c410240770-100-100.jpg", "pic": "http://img1.mukewang.com/583e9afa000166c410240770-370-370.jpg"}, {"uid": "5245191", "nickname": "DocMike", "aboutme": "\u5b89\u5353\u5de5\u7a0b\u5e08  \u591a\u5e74\u5f00\u53d1\u548c\u5e26\u56e2\u961f\u7ecf\u9a8c\uff0c\u66fe\u5728BAT\u7b49\u591a\u5bb6\u4e00\u7ebf\u4e92\u8054\u7f51\u516c\u53f8\u5c31\u804c\uff0cP\u5927\u7855\u58eb\u6bd5\u4e1a\uff0c\u5e94\u5c4a\u751f\u5bfc\u5e08\u3001\u6821\u62db\u3001\u793e\u62db\u9762\u8bd5\u5b98\uff0c\u4e3b\u5bfc\u4e0e\u5f00\u53d1\u8fc7\u591a\u6b3e\u77e5\u540d\u7684\u4e92\u8054\u7f51\u91d1\u878d\u3001\u514d\u8d39\u56fd\u9645\u7535\u8bdd\u3001\u5916\u5356\u7b49\u9879\u76ee\u7684\u67b6\u6784\u4e0e\u5f00\u53d1", "portrait": "590b09de0001503904000400", "job_title": "\u79fb\u52a8\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img3.mukewang.com/590b09de0001503904000400-100-100.jpg", "pic": "http://img.mukewang.com/590b09de0001503904000400-370-370.jpg"}, {"uid": "3017249", "nickname": "ustbhuangyi", "aboutme": "\u5317\u4eac\u79d1\u6280\u5927\u5b66\u8ba1\u7b97\u673a\u4e13\u4e1a\u7855\u58eb\u3002\u66fe\u4efb\u804c\u767e\u5ea6\uff0c\u73b0\u5c31\u804c\u6ef4\u6ef4\uff0c\u524d\u7aef\u6280\u672f\u4e13\u5bb6\u3002\u5bf9Vue.js\u6709\u5f88\u6df1\u7684\u7406\u89e3\uff0c\u662f\u300aVue.js\u6743\u5a01\u6307\u5357\u300b\u4e00\u4e66\u7684\u4e3b\u8981\u4f5c\u8005\u3002\u4ed6\u6709\u7740\u6559\u79d1\u4e66\u5f0f\u7684\u4ee3\u7801\u5199\u4f5c\u4e60\u60ef\uff0c\u5bf9\u4ee3\u7801\u6709\u6d01\u7656\uff0c\u8ffd\u6c42\u9ad8\u8d28\u91cf\u7684\u4ee3\u7801\u3002\u5f3a\u5316\u63d0\u5347\u7f16\u5199\u9ad8\u53ef\u6269\u5c55\uff0c\u901a\u7528\u6027\u5f3a\u7684\u4ee3\u7801\u7684\u80fd\u529b", "portrait": "577baef700019c4501400140", "job_title": "\u6ef4\u6ef4\u524d\u7aef\u6280\u672f\u4e13\u5bb6", "img": "http://img1.mukewang.com/577baef700019c4501400140-100-100.jpg", "pic": "http://img4.mukewang.com/577baef700019c4501400140-370-370.jpg"}, {"uid": "5027812", "nickname": "\u5feb\u4e50\u52a8\u8d77\u6765\u5440", "aboutme": "7\u5e74\u5de5\u4f5c\u7ecf\u9a8c\u7684\u8d44\u6df1\u524d\u7aef\u5de5\u7a0b\u5e08\uff0c\u4e3b\u8981\u4ece\u4e8bWeb\u89c6\u9891\u9886\u57df\u7684\u5e95\u5c42\u5f00\u53d1\u3002\u5148\u540e\u5728360\u3001\u53bb\u54ea\u513f\u7f51\u3001\u67d0\u77e5\u540d\u89c6\u9891\u516c\u53f8\u5de5\u4f5c\u3002\u5148\u540e\u8f93\u51fa\u300aES6\u96f6\u57fa\u7840\u6559\u5b66 \u89e3\u6790\u5f69\u7968\u9879\u76ee\u300b\u3001\u300a\u524d\u7aef\u8df3\u69fd\u9762\u8bd5\u5fc5\u5907\u6280\u5de7\u300b\u3001\u300a\u524d\u7aef\u9762\u8bd5\u9879\u76ee\u51b2\u523a\uff0c\u4eac\u4e1c\u91d1\u878dVue\u7ec4\u4ef6\u5316\u5b9e\u6218\u300b\u7b49\u8bfe\u7a0b", "portrait": "54584cb50001e5b302200220", "job_title": "Web\u524d\u7aef\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/54584cb50001e5b302200220-100-100.jpg", "pic": "http://img2.mukewang.com/54584cb50001e5b302200220-370-370.jpg"}]}, {"name": "\u731c\u4f60\u559c\u6b22", "pic": "http://www.imooc.com/static/img/andriod/icon/guess_love@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/guess_love_night@3x.png", "type": 4, "list_type": 1, "operate_type": 2, "course": [{"id": "790", "name": "django\u5165\u95e8\u4e0e\u5b9e\u8df5", "short_description": "\u624b\u628a\u624b\u5e26\u4f60\u8fdb\u5165Django\u5f00\u53d1\u7684\u5927\u95e8\uff0c\u5145\u5206\u9886\u7565Django\u7684\u9b45\u529b", "pic": "http://img.mukewang.com/586f60d90001776a06000338-590-330.jpg", "numbers": "58382", "type": 1, "share": "http://www.imooc.com/learn/790", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img3.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img4.mukewang.com/5b1746ed0001976102400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "4905", "name": "Django"}]}, {"id": "62", "name": "\u4fe1\u606f\u6392\u5217\u6548\u679c", "short_description": "\u5927\u5496\u6559\u60a8\u8282\u7ea6\u7f51\u9875\u7a7a\u95f4\u7684\u65b9\u6cd5\uff0c\u5feb\u901f\u5b66\u4f1a\u4fe1\u606f\u6392\u5217\u6548\u679c\u7684\u5236\u4f5c", "pic": "http://img3.mukewang.com/574673940001426706000338-590-330.jpg", "numbers": "32145", "type": 1, "share": "http://www.imooc.com/learn/62", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img1.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img4.mukewang.com/5b1893f90001d25702400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}]}, {"id": "640", "name": "R\u8bed\u8a00\u4e4b\u6570\u636e\u53ef\u89c6\u5316", "short_description": "R\u8bed\u8a00\u4e09\u5927\u7ed8\u56fe\u7cfb\u7edf\uff0c\u7528\u56fe\u5f62\u76f4\u89c2\u63a2\u7d22\u6570\u636e\u3001\u53d1\u73b0\u6709\u4ef7\u503c\u4fe1\u606f", "pic": "http://img3.mukewang.com/56f8a3a50001f03406000338-590-330.jpg", "numbers": "34160", "type": 1, "share": "http://www.imooc.com/learn/640", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1359", "skill_name": "\u5927\u6570\u636e", "skill_pic": "http://img3.mukewang.com/5b174aa700017b6102400240.jpg", "skill_color": "1679d3", "category_pic": "http://img.mukewang.com/5b174aae00016dda02400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1359", "name": "\u5927\u6570\u636e"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "214", "name": "\u6a21\u5f0f\u7684\u79d8\u5bc6---\u4ee3\u7406\u6a21\u5f0f", "short_description": "\u672c\u8282\u8bfe\u7a0b\u5c06\u5e26\u4f60\u9886\u7565Java\u7f16\u7a0b\u8bed\u8a00\u4e2d\u4ee3\u7406\u6a21\u5f0f\u7684\u5965\u5999", "pic": "http://img1.mukewang.com/572afd6000019e1f06000338-590-330.jpg", "numbers": "50839", "type": 1, "share": "http://www.imooc.com/learn/214", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img1.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}]}, {"id": "262", "name": "RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f\u7cbe\u8bb2", "order_type": 2, "short_description": "\u4ece0\u52301\uff0c\u5168\u9762\u6df1\u5165\u638c\u63e1RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f", "pic": "http://img1.sycdn.imooc.com/szimg/5b6015ac00011ca105400300-360-202.jpg", "numbers": "824", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=262", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/262", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4903", "name": "SpringBoot"}]}, {"id": "225", "name": "HTTP\u534f\u8bae\u539f\u7406+\u5b9e\u8df5Web\u5f00\u53d1\u5de5\u7a0b\u5e08\u5fc5\u5b66", "order_type": 2, "short_description": "\u89e3\u6790HTTP\u534f\u8bae\u539f\u7406 \u592f\u5b9eHTTP\u6280\u672f\u57fa\u7840 \u6253\u901a\u524d\u540e\u7aef\u52a9\u4f60\u5feb\u901f\u6210\u957f", "pic": "http://img1.sycdn.imooc.com/szimg/5b0cb5df00016e5405400300-360-202.jpg", "numbers": "2593", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=225", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img.mukewang.com/5b1893f90001d25702400240.jpg", "pay_price": "99", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 9900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/225", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}, {"id": "222", "name": "Node.js"}]}]}], "errorCode": 1000, "errorDesc": "\u6210\u529f", "timestamp": 1561274618249}</t>
+  </si>
+  <si>
+    <t>imooc_003</t>
+  </si>
+  <si>
+    <t>新课程</t>
+  </si>
+  <si>
+    <t>api3/newcourseskill</t>
+  </si>
+  <si>
+    <t>{"username":"111113","coursename":"test","orderid":"123","id":"123"}</t>
   </si>
   <si>
     <t>write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>host</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/register/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>imooc_004</t>
   </si>
   <si>
     <t>评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api3/getdownrecommend</t>
+  </si>
+  <si>
+    <t>{"username":"111114"}</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1563094047429}</t>
+  </si>
+  <si>
+    <t>imooc_005</t>
+  </si>
+  <si>
+    <t>课程信息</t>
+  </si>
+  <si>
+    <t>api3/getcourseintro</t>
+  </si>
+  <si>
+    <t>{"username":"111115"}</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1563094047603}</t>
+  </si>
+  <si>
+    <t>imooc_006</t>
+  </si>
+  <si>
+    <t>播放列表</t>
+  </si>
+  <si>
+    <t>api3/getmedialist</t>
+  </si>
+  <si>
+    <t>{"username":"111116"}</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1562483684426}</t>
+  </si>
+  <si>
+    <t>imooc_007</t>
+  </si>
+  <si>
+    <t>课程列表</t>
+  </si>
+  <si>
+    <t>api3/courselistinfo</t>
+  </si>
+  <si>
+    <t>{"username":"111117"}</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1563094048035}</t>
+  </si>
+  <si>
+    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1562483684951}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
+      <charset val="134"/>
       <family val="2"/>
-      <charset val="134"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -180,29 +247,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -502,126 +577,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107D5C44-2E37-41E1-A084-75943E4CC6DF}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
+      <selection activeCell="M2" sqref="M2:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="4" width="11.25"/>
+    <col customWidth="1" max="2" min="2" style="4" width="8.08203125"/>
+    <col customWidth="1" max="3" min="3" style="4" width="4.83203125"/>
+    <col customWidth="1" max="5" min="4" style="4" width="11.5"/>
+    <col customWidth="1" max="6" min="6" style="4" width="12.08203125"/>
+    <col customWidth="1" max="7" min="7" style="4" width="9.08203125"/>
+    <col customWidth="1" max="8" min="8" style="4" width="13.5"/>
+    <col customWidth="1" max="10" min="9" style="4" width="10"/>
+    <col customWidth="1" max="11" min="11" style="4" width="17.5"/>
+    <col customWidth="1" max="12" min="12" style="3" width="6.58203125"/>
+    <col customWidth="1" max="14" min="14" style="4" width="16.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="23.5" r="2" s="4" spans="1:14">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="29.15" r="3" s="4" spans="1:14">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
+    <row customHeight="1" ht="75.65000000000001" r="4" s="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
+    <row customHeight="1" ht="42" r="5" s="4" spans="1:14">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
+    <row customHeight="1" ht="42" r="6" s="4" spans="1:14">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+    <row customHeight="1" ht="42" r="7" s="4" spans="1:14">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="42" r="8" s="4" spans="1:14">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="N10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://www.imooc.com/login/mobile" ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Interface/Case/imooc.xlsx
+++ b/Interface/Case/imooc.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAN\.vscode\Interface\Case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C138D431-7143-4B20-8E49-E9A9188B7C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11020" windowWidth="19420" xWindow="13550" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>case编号</t>
   </si>
@@ -79,12 +85,6 @@
     <t>mec</t>
   </si>
   <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>{"status": 0, "data": {"banner": [{"id": 2262, "type": 6, "type_id": 330, "name": "\u524d\u7aef\u4e0b\u4e00\u4ee3\u5f00\u53d1\u8bed\u8a00TypeScript  \u4ece\u57fa\u7840\u5230axios\u5b9e\u6218", "pic": "http://szimg.mukewang.com/5cf721df09fc2be500000000.jpg", "links": ""}, {"id": 1648, "type": 6, "type_id": 169, "name": "Python3\u5165\u95e8\u673a\u5668\u5b66\u4e60 \u7ecf\u5178\u7b97\u6cd5\u4e0e\u5e94\u7528", "pic": "http://szimg.mukewang.com/5d0ed2d9085bd6ed09000300.jpg", "links": ""}, {"id": 1875, "type": 6, "type_id": 316, "name": "\u4ece\u57fa\u7840\u5230\u5b9e\u6218 \u624b\u628a\u624b\u5e26\u4f60\u638c\u63e1\u65b0\u7248Webpack4.0", "pic": "http://szimg.mukewang.com/5d0ed2ca086a9e6f09000300.jpg", "links": ""}, {"id": 1999, "type": 6, "type_id": 342, "name": "\u7eaf\u6b63\u5546\u4e1a\u7ea7\u5e94\u7528 Node.js Koa2\u5f00\u53d1\u5fae\u4fe1\u5c0f\u7a0b\u5e8f\u670d\u52a1\u7aef", "pic": "http://szimg.mukewang.com/5ceb5d370955f30f09000300.jpg", "links": ""}, {"id": 2158, "type": 99, "type_id": 0, "name": "Spring Cloud\u5fae\u670d\u52a1\u5f00\u53d1\u5b9e\u8df5", "pic": "http://img2.mukewang.com/5d088c4009bbebc009000300.jpg", "links": "https://www.imooc.com/read/37"}, {"id": 1709, "type": 6, "type_id": 354, "name": "Node.js\u5f00\u53d1\u4eff\u77e5\u4e4e\u670d\u52a1\u7aef \u6df1\u5165\u7406\u89e3RESTful API", "pic": "http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg", "links": ""}], "pic": [{"pic": "http://www.imooc.com/static/img/andriod/pic/actual_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/actual_night@3x.png", "type": 2}, {"pic": "http://www.imooc.com/static/img/andriod/pic/path_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/path_night@3x.png", "type": 6}, {"pic": "http://www.imooc.com/static/img/andriod/pic/question_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/question_night@3x.png", "type": 3}, {"pic": "http://www.imooc.com/static/img/andriod/pic/note_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/note_night@3x.png", "type": 4}, {"pic": "http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png", "type": 5}]}, "errorCode": 1001, "errorDesc": "\u6210\u529f", "timestamp": 1561269343507}</t>
-  </si>
-  <si>
     <t>imooc_002</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>1006</t>
   </si>
   <si>
-    <t>{"status": 1, "data": [{"name": "\u8bfe\u7a0b\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/recommend@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/recommend_night@3x.png", "type": 1, "list_type": 1, "operate_type": 1, "course": [{"id": "1134", "name": "\u6781\u901f\u5165\u95e8SpringCloud\u4e4bAPI\u7f51\u5173\u4e0e\u670d\u52a1\u53d1\u73b0", "short_description": "SpringCloud\u5fae\u670d\u52a1\u5b9e\u6218\uff0c\u4ece\u67b6\u6784\u5230\u7f51\u5173\u5230\u670d\u52a1\u53d1\u73b0\u3002\r\n", "pic": "http://img3.mukewang.com/5d0771a608ce48cb02000114-590-330.jpg", "numbers": "1270", "type": 1, "share": "http://www.imooc.com/learn/1134", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u521d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "1133", "name": "PHP\u52a0\u5bc6", "short_description": "\u4e3a\u4ec0\u4e48\u8981\u4f7f\u7528\u52a0\u5bc6\uff0c\u8ba9\u6211\u4eec\u5bf9\u5bc6\u7801\u5b66\u6709\u4e2a\u521d\u6b65\u7684\u8ba4\u8bc6\u3002", "pic": "http://img3.mukewang.com/5d01e4a508f8c1e706000338-590-330.jpg", "numbers": "460", "type": 1, "share": "http://www.imooc.com/learn/1133", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u4e2d\u7ea7", "skill_id": "1", "skill_name": "PHP", "skill_pic": "http://img4.mukewang.com/59c895400001280402400240.jpg", "skill_color": "5280f1", "category_pic": "http://img1.mukewang.com/5b174699000182b802400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "1", "name": "PHP"}]}, {"id": "472", "name": "Cocos2d-x\u6e38\u620f\u4e4b\u4e03\u5915\u5973\u795e\u6293\u6355\u8ba1\u5212", "short_description": "\u62ef\u6551\u9648\u65e0\u7801\u4ece\u6e38\u620f\u5f00\u53d1\u5f00\u59cb\uff0c\u5982\u679c\u4f60\u60f3\u9006\u88ad\uff0c\u90a3\u4e48\u5feb\u6765\u5b66\u4e60", "pic": "http://img3.mukewang.com/55c47a0a0001347b06000338-590-330.jpg", "numbers": "45138", "type": 1, "share": "http://www.imooc.com/learn/472", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1361", "skill_name": "Cocos2d-x", "skill_pic": "http://img4.mukewang.com/5b17497c00016bcf02400240.jpg", "skill_color": "17c5bc", "category_pic": "http://img.mukewang.com/5b1749810001b5a002400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1361", "name": "Cocos2d-x"}, {"id": "1331", "name": "C++"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "125", "name": "Web App\u4e0b\u56fe\u7247\u6ed1\u52a8\u7ec4\u4ef6\u7684\u5f00\u53d1", "short_description": "\u672c\u8bfe\u7a0b\u5c31\u662f\u8bb2\u8ff0\u4ece\u96f6\u5f00\u59cb\uff0c\u5982\u4f55\u6784\u5efa\u4e00\u4e2a\u79fb\u52a8\u7aef\u7684\u6ed1\u52a8\u7ec4\u4ef6", "pic": "http://img2.mukewang.com/5705d0d600013ea906000338-590-330.jpg", "numbers": "38332", "type": 1, "share": "http://www.imooc.com/learn/125", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1260", "skill_name": "WebApp", "skill_pic": "http://img.mukewang.com/59c896080001e08602400240.jpg", "skill_color": "ff5058", "category_pic": "http://img4.mukewang.com/5b17466a0001bc0c02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff9600", "bgcolor_end": "#b3ff9600", "skills": [{"id": "1260", "name": "WebApp"}]}]}, {"name": "\u5c31\u4e1a\u73ed", "pic": "http://www.imooc.com/static/img/andriod/icon/class@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/class_night@3x.png", "type": 7, "list_type": 2, "operate_type": 1, "course": [{"id": "67", "name": "\u96f6\u57fa\u7840Java\u5c0f\u767d\u4f53\u9a8c\u8bfe", "short_description": "", "pic": "http://climg.mukewang.com/5c8628560001189f06000338.jpg", "numbers": "1296", "courses": "4", "type": 4, "share": "http://class.imooc.com/sc/67", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "JAVA\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "9.99", "discount_type": "1", "discount_name": "\u9650\u65f6\u4fc3\u9500", "discount_price": "9.99", "discount_start_time": "0", "discount_end_time": "0", "price": 4900, "is_buy": 0}, {"id": "66", "name": "\u5165\u95e8\u4e3b\u6d41\u6846\u67b6Scrapy\u4e0e\u722c\u866b\u9879\u76ee\u5b9e\u6218", "short_description": "", "pic": "http://climg.mukewang.com/5c87804700018a9106000338.jpg", "numbers": "362", "courses": "14", "type": 4, "share": "http://class.imooc.com/sc/66", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "868", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 86800, "is_buy": 0}, {"id": "65", "name": "\u4ece\u7f51\u9875\u642d\u5efa\u5165\u95e8Python Web", "short_description": "", "pic": "http://climg.mukewang.com/5c87807700013c7906000338.jpg", "numbers": "391", "courses": "22", "type": 4, "share": "http://class.imooc.com/sc/65", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "799", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 79900, "is_buy": 0}]}, {"name": "banner\u5e7f\u544a", "pic": "", "pic_night": "", "type": 6, "list_type": 1, "operate_type": 0, "ads": [{"id": 2085, "type": 99, "type_id": 0, "name": "python", "pic": "http://img3.mukewang.com/5cd929c5099c98df10530138.jpg", "links": "https://class.imooc.com/sale/python"}]}, {"name": "\u5b9e\u6218\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/shizhan@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/shizhan_night@3x.png", "type": 2, "list_type": 1, "operate_type": 1, "course": [{"id": "187", "name": "SpringCloud  Finchley\u4e09\u7248\u672c(M2+RELEASE+SR2)\u5fae\u670d\u52a1\u5b9e\u6218", "order_type": 2, "short_description": "\u719f\u7ec3\u4f7f\u7528SpringCloud\u7ec4\u4ef6\u5b9e\u73b0\u5fae\u670d\u52a1\uff0c\u5411\u67b6\u6784\u5e08\u8fc8\u8fdb\uff01\u3010\u5df2\u5347\u7ea7\u81f3Finchley.Release\u3011", "pic": "http://img1.sycdn.imooc.com/szimg/5cb68a1408ed350506000338-360-202.jpg", "numbers": "4111", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=187", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "366", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 36600, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/187", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4737", "name": "\u5fae\u670d\u52a1"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "160", "name": "Python+Django+Ansible Playbook\u81ea\u52a8\u5316\u8fd0\u7ef4\u9879\u76ee\u5b9e\u6218", "order_type": 2, "short_description": "\u3010\u8bfe\u7a0b\u4ee3\u7801\u5347\u7ea73.6\u7248\u672c\u3011\u963f\u91cc\u5927\u725b\u5168\u9762\u8df5\u884cDevOps\uff0c\u5e26\u4f60\u5f00\u542f\u8fd0\u7ef4\u4e0e\u5f00\u53d1\u95f4\u9ad8\u6548\u534f\u4f5c\u6a21\u5f0f\uff01", "pic": "http://img1.sycdn.imooc.com/szimg/5a5334a50001d3dc05400300-360-202.jpg", "numbers": "551", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=160", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img1.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img2.mukewang.com/5b1746ed0001976102400240.jpg", "pay_price": "388", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 38800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/160", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "5207", "name": "\u81ea\u52a8\u5316\u8fd0\u7ef4"}]}, {"id": "308", "name": "Top\u56e2\u961f\u5927\u725b\u5e26\u4f60\u73a9\u8f6cAndroid\u6027\u80fd\u5206\u6790\u4e0e\u4f18\u5316", "order_type": 2, "short_description": "\u7531\u8868\u53ca\u91cc\u5b66\u5230\u56fd\u5185Top\u56e2\u961f\u5bf9\u6027\u80fd\u95ee\u9898\u7684\u4f53\u7cfb\u4f18\u5316\u65b9\u6848\u3001\u624b\u6bb5\u53ca\u4fdd\u969c\u7ecf\u9a8c", "pic": "http://img1.sycdn.imooc.com/szimg/5c26f19508ce8c8100000000-360-202.jpg", "numbers": "527", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=308", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "223", "skill_name": "Android", "skill_pic": "http://img4.mukewang.com/5b18943b00018ba502400240.jpg", "skill_color": "00b85a", "category_pic": "http://img3.mukewang.com/5b1747e50001d45c02400240.jpg", "pay_price": "288", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 28800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/308", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff00b95a", "bgcolor_end": "#b300b95a", "skills": [{"id": "223", "name": "Android"}]}, {"id": "274", "name": "MySQL\u6570\u636e\u5e93\u96c6\u7fa4-PXC\u65b9\u6848", "order_type": 2, "short_description": "\u5b66\u4e60PXC\uff0c\u6253\u9020\u9ad8\u4ef7\u503c\u7684MySQL\u96c6\u7fa4", "pic": "http://img1.sycdn.imooc.com/szimg/5b8e74ac00019f7d05400300-360-202.jpg", "numbers": "238", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=274", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "299", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 29900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/274", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}, {"id": "167", "name": "BAT\u5927\u725b\u4eb2\u6388 \u57fa\u4e8eElasticSearch\u7684\u641c\u623f\u7f51\u5b9e\u6218 ", "order_type": 2, "short_description": "ES+MySQL+Kafka\uff0c\u7ed3\u5408\u767e\u5ea6\u5730\u56fe\u3001ELK\u7b49\u5b9e\u8df5ES\u9ad8\u7ea7\u5e94\u7528\uff0c\u6253\u9020\u5f3a\u529b\u7ad9\u5185\u641c\u7d22", "pic": "http://img1.sycdn.imooc.com/szimg/5a308c9400011c1305400300-360-202.jpg", "numbers": "669", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=167", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/167", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "1359", "name": "\u5927\u6570\u636e"}]}, {"id": "208", "name": "MyCAT+MySQL\u642d\u5efa\u9ad8\u53ef\u7528\u4f01\u4e1a\u7ea7\u6570\u636e\u5e93\u96c6\u7fa4", "order_type": 2, "short_description": "\u56fd\u5185\u9876\u7ea7DBA\u4eb2\u6388\uff0c\u7cbe\u8bb2\u4f01\u4e1a\u7ea7MyCAT\u5e94\u7528\uff0c\u8be6\u89e3\u4e1a\u52a1\u6570\u636e\u5e93\u5206\u5e93\u5206\u8868\u3001\u8bfb\u5199\u5206\u79bb", "pic": "http://img1.sycdn.imooc.com/szimg/5ad5568300018ede05400300-360-202.jpg", "numbers": "455", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=208", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "199", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 19900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/208", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}]}, {"name": "\u65b0\u8bfe\u4e0a\u67b6", "pic": "http://www.imooc.com/static/img/andriod/icon/new_course@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/new_course_night@3x.png", "type": 3, "list_type": 2, "operate_type": 0, "course": [{"id": "37", "name": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff09", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "4737", "name": "\u5fae\u670d\u52a1"}], "short_description": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff091122", "numbers": "11", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5af2b85e000134d112000675-360-202.jpg", "price": 100, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/37"}, {"id": "353", "name": "\u963f\u91cc\u65b0\u96f6\u552e\u6570\u636e\u5e93\u8bbe\u8ba1\u4e0e\u5b9e\u6218 ", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "952", "name": "MySQL"}], "short_description": "\u6570\u636e\u5e93\u662f\u5f00\u53d1\u4eba\u5458\u7684\u5fc5\u4fee\u8bfe\uff0c\u89e3\u9501\u201c\u65b0\u96f6\u552e\u201d\u4e1a\u52a1\u8ba9\u6570\u636e\u5e93\u5b9e\u6218\u80fd\u529b\u518d\u4e0a\u4e00\u5c42\u697c", "numbers": "243", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d08d0b308c9749706000338-360-202.jpg", "price": 28800, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/353"}, {"id": "359", "name": "Web\u81ea\u52a8\u5316\u6d4b\u8bd5 Selenium\u57fa\u7840\u5230\u4f01\u4e1a\u5b9e\u9645\u5e94\u7528", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "5265", "name": "\u81ea\u52a8\u5316\u6d4b\u8bd5"}], "short_description": "\u6210\u4e3aWeb\u81ea\u52a8\u5316\u6d4b\u8bd5\u5de5\u7a0b\u5e08\u7684\u5fc5\u5907\u8bfe\u7a0b", "numbers": "14", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d0356e3085c9d4606000338-360-202.jpg", "price": 26600, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/359"}]}, {"name": "\u6155\u8bfe\u7cbe\u82f1\u540d\u5e08\u63a8\u8350", "pic": "", "pic_night": "", "type": 5, "list_type": 2, "operate_type": 0, "teachers": [{"uid": "2155343", "nickname": "\u626c\u5e06\u8fdc\u822a_", "aboutme": "\u62e5\u6709\u591a\u5e74\u5e26\u9886\u534e\u4e3a\u6570\u636e\u6316\u6398\u56e2\u961f\u7ed9\u5168\u4e16\u754c\u8303\u56f4\u5185\u8457\u540d\u8fd0\u8425\u5546\u63d0\u4f9b\u5927\u6570\u636e\u89e3\u51b3\u65b9\u6848\u7684\u7ecf\u9a8c\uff0c\u5de5\u4f5c\u4e2d\u6240\u5e26\u9886\u7684\u56e2\u961f\u4e3b\u8981\u8d1f\u8d23\u5904\u7406\u3001\u6316\u6398\u548c\u5206\u6790\u6bcf\u5929\u6570\u4ee5TB\u8ba1\u7684\u6570\u636e\u3002\u4f5c\u4e3a\u4e00\u4e2a\u5e26\u9886\u62e5\u670920\u4eba\u56e2\u961f\u6210\u529f\u5b8c\u6210\u591a\u4e2a\u5168\u7403\u9879\u76ee\u7684leader,\u975e\u5e38\u4e86\u89e3\u5f53\u4eca\u7528\u9014\u6700\u5e7f\u6cdb\u7684\u6570\u636e\u6316\u6398\u3001\u673a\u5668\u5b66\u4e60\u548c\u6570\u7406\u7edf\u8ba1\u65b9\u6cd5,\u540c\u65f6\u6709\u7740\u591a\u5e74\u719f\u7ec3\u5e94\u7528\u5404\u79cd\u6570\u636e\u6316\u6398\u5e73\u53f0\u5de5\u5177\u548c\u6570\u7406\u7edf\u8ba1\u5305(\u4f8b\u5982R,python\u548cSpark)\u7ecf\u9a8c\u3002", "portrait": "545850bb0001979202200220", "job_title": "\u6570\u636e\u79d1\u5b66\u5bb6", "img": "http://img1.mukewang.com/545850bb0001979202200220-100-100.jpg", "pic": "http://img1.mukewang.com/545850bb0001979202200220-370-370.jpg"}, {"uid": "4379042", "nickname": "\u7f16\u7a0b\u6d6a\u5b50", "aboutme": "\u4e92\u8054\u7f51\u642c\u7816\u5c0f\u738b\u5b50\uff0c\u4ece\u4e8b\u4e92\u8054\u7f51web \u5f00\u53d16\u5e74\uff0c\u70ed\u7231\u642c\u7816\u884c\u4e1a\uff0c\u6709\u4ee3\u7801\u6d01\u7656\uff0c\u5bf9PHP\uff0cPython\uff0cJava\u90fd\u6709\u6d89\u730e\uff0c \u5b9e\u8df5\u7ecf\u9a8c\u4e30\u5bcc\uff0c\u5bcc\u6709\u6fc0\u60c5\uff0c\u70ed\u7231\u5206\u4eab\uff0c\u4e50\u89c2\u5f00\u6717\uff0c\u559c\u6b22\u4e13\u7814\u65b0\u6280\u672f", "portrait": "583e9afa000166c410240770", "job_title": "PHP\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/583e9afa000166c410240770-100-100.jpg", "pic": "http://img1.mukewang.com/583e9afa000166c410240770-370-370.jpg"}, {"uid": "5245191", "nickname": "DocMike", "aboutme": "\u5b89\u5353\u5de5\u7a0b\u5e08  \u591a\u5e74\u5f00\u53d1\u548c\u5e26\u56e2\u961f\u7ecf\u9a8c\uff0c\u66fe\u5728BAT\u7b49\u591a\u5bb6\u4e00\u7ebf\u4e92\u8054\u7f51\u516c\u53f8\u5c31\u804c\uff0cP\u5927\u7855\u58eb\u6bd5\u4e1a\uff0c\u5e94\u5c4a\u751f\u5bfc\u5e08\u3001\u6821\u62db\u3001\u793e\u62db\u9762\u8bd5\u5b98\uff0c\u4e3b\u5bfc\u4e0e\u5f00\u53d1\u8fc7\u591a\u6b3e\u77e5\u540d\u7684\u4e92\u8054\u7f51\u91d1\u878d\u3001\u514d\u8d39\u56fd\u9645\u7535\u8bdd\u3001\u5916\u5356\u7b49\u9879\u76ee\u7684\u67b6\u6784\u4e0e\u5f00\u53d1", "portrait": "590b09de0001503904000400", "job_title": "\u79fb\u52a8\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img3.mukewang.com/590b09de0001503904000400-100-100.jpg", "pic": "http://img.mukewang.com/590b09de0001503904000400-370-370.jpg"}, {"uid": "3017249", "nickname": "ustbhuangyi", "aboutme": "\u5317\u4eac\u79d1\u6280\u5927\u5b66\u8ba1\u7b97\u673a\u4e13\u4e1a\u7855\u58eb\u3002\u66fe\u4efb\u804c\u767e\u5ea6\uff0c\u73b0\u5c31\u804c\u6ef4\u6ef4\uff0c\u524d\u7aef\u6280\u672f\u4e13\u5bb6\u3002\u5bf9Vue.js\u6709\u5f88\u6df1\u7684\u7406\u89e3\uff0c\u662f\u300aVue.js\u6743\u5a01\u6307\u5357\u300b\u4e00\u4e66\u7684\u4e3b\u8981\u4f5c\u8005\u3002\u4ed6\u6709\u7740\u6559\u79d1\u4e66\u5f0f\u7684\u4ee3\u7801\u5199\u4f5c\u4e60\u60ef\uff0c\u5bf9\u4ee3\u7801\u6709\u6d01\u7656\uff0c\u8ffd\u6c42\u9ad8\u8d28\u91cf\u7684\u4ee3\u7801\u3002\u5f3a\u5316\u63d0\u5347\u7f16\u5199\u9ad8\u53ef\u6269\u5c55\uff0c\u901a\u7528\u6027\u5f3a\u7684\u4ee3\u7801\u7684\u80fd\u529b", "portrait": "577baef700019c4501400140", "job_title": "\u6ef4\u6ef4\u524d\u7aef\u6280\u672f\u4e13\u5bb6", "img": "http://img1.mukewang.com/577baef700019c4501400140-100-100.jpg", "pic": "http://img4.mukewang.com/577baef700019c4501400140-370-370.jpg"}, {"uid": "5027812", "nickname": "\u5feb\u4e50\u52a8\u8d77\u6765\u5440", "aboutme": "7\u5e74\u5de5\u4f5c\u7ecf\u9a8c\u7684\u8d44\u6df1\u524d\u7aef\u5de5\u7a0b\u5e08\uff0c\u4e3b\u8981\u4ece\u4e8bWeb\u89c6\u9891\u9886\u57df\u7684\u5e95\u5c42\u5f00\u53d1\u3002\u5148\u540e\u5728360\u3001\u53bb\u54ea\u513f\u7f51\u3001\u67d0\u77e5\u540d\u89c6\u9891\u516c\u53f8\u5de5\u4f5c\u3002\u5148\u540e\u8f93\u51fa\u300aES6\u96f6\u57fa\u7840\u6559\u5b66 \u89e3\u6790\u5f69\u7968\u9879\u76ee\u300b\u3001\u300a\u524d\u7aef\u8df3\u69fd\u9762\u8bd5\u5fc5\u5907\u6280\u5de7\u300b\u3001\u300a\u524d\u7aef\u9762\u8bd5\u9879\u76ee\u51b2\u523a\uff0c\u4eac\u4e1c\u91d1\u878dVue\u7ec4\u4ef6\u5316\u5b9e\u6218\u300b\u7b49\u8bfe\u7a0b", "portrait": "54584cb50001e5b302200220", "job_title": "Web\u524d\u7aef\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/54584cb50001e5b302200220-100-100.jpg", "pic": "http://img2.mukewang.com/54584cb50001e5b302200220-370-370.jpg"}]}, {"name": "\u731c\u4f60\u559c\u6b22", "pic": "http://www.imooc.com/static/img/andriod/icon/guess_love@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/guess_love_night@3x.png", "type": 4, "list_type": 1, "operate_type": 2, "course": [{"id": "790", "name": "django\u5165\u95e8\u4e0e\u5b9e\u8df5", "short_description": "\u624b\u628a\u624b\u5e26\u4f60\u8fdb\u5165Django\u5f00\u53d1\u7684\u5927\u95e8\uff0c\u5145\u5206\u9886\u7565Django\u7684\u9b45\u529b", "pic": "http://img.mukewang.com/586f60d90001776a06000338-590-330.jpg", "numbers": "58382", "type": 1, "share": "http://www.imooc.com/learn/790", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img3.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img4.mukewang.com/5b1746ed0001976102400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "4905", "name": "Django"}]}, {"id": "62", "name": "\u4fe1\u606f\u6392\u5217\u6548\u679c", "short_description": "\u5927\u5496\u6559\u60a8\u8282\u7ea6\u7f51\u9875\u7a7a\u95f4\u7684\u65b9\u6cd5\uff0c\u5feb\u901f\u5b66\u4f1a\u4fe1\u606f\u6392\u5217\u6548\u679c\u7684\u5236\u4f5c", "pic": "http://img3.mukewang.com/574673940001426706000338-590-330.jpg", "numbers": "32145", "type": 1, "share": "http://www.imooc.com/learn/62", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img1.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img4.mukewang.com/5b1893f90001d25702400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}]}, {"id": "640", "name": "R\u8bed\u8a00\u4e4b\u6570\u636e\u53ef\u89c6\u5316", "short_description": "R\u8bed\u8a00\u4e09\u5927\u7ed8\u56fe\u7cfb\u7edf\uff0c\u7528\u56fe\u5f62\u76f4\u89c2\u63a2\u7d22\u6570\u636e\u3001\u53d1\u73b0\u6709\u4ef7\u503c\u4fe1\u606f", "pic": "http://img3.mukewang.com/56f8a3a50001f03406000338-590-330.jpg", "numbers": "34160", "type": 1, "share": "http://www.imooc.com/learn/640", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1359", "skill_name": "\u5927\u6570\u636e", "skill_pic": "http://img3.mukewang.com/5b174aa700017b6102400240.jpg", "skill_color": "1679d3", "category_pic": "http://img.mukewang.com/5b174aae00016dda02400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1359", "name": "\u5927\u6570\u636e"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "214", "name": "\u6a21\u5f0f\u7684\u79d8\u5bc6---\u4ee3\u7406\u6a21\u5f0f", "short_description": "\u672c\u8282\u8bfe\u7a0b\u5c06\u5e26\u4f60\u9886\u7565Java\u7f16\u7a0b\u8bed\u8a00\u4e2d\u4ee3\u7406\u6a21\u5f0f\u7684\u5965\u5999", "pic": "http://img1.mukewang.com/572afd6000019e1f06000338-590-330.jpg", "numbers": "50839", "type": 1, "share": "http://www.imooc.com/learn/214", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img1.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}]}, {"id": "262", "name": "RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f\u7cbe\u8bb2", "order_type": 2, "short_description": "\u4ece0\u52301\uff0c\u5168\u9762\u6df1\u5165\u638c\u63e1RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f", "pic": "http://img1.sycdn.imooc.com/szimg/5b6015ac00011ca105400300-360-202.jpg", "numbers": "824", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=262", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/262", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4903", "name": "SpringBoot"}]}, {"id": "225", "name": "HTTP\u534f\u8bae\u539f\u7406+\u5b9e\u8df5Web\u5f00\u53d1\u5de5\u7a0b\u5e08\u5fc5\u5b66", "order_type": 2, "short_description": "\u89e3\u6790HTTP\u534f\u8bae\u539f\u7406 \u592f\u5b9eHTTP\u6280\u672f\u57fa\u7840 \u6253\u901a\u524d\u540e\u7aef\u52a9\u4f60\u5feb\u901f\u6210\u957f", "pic": "http://img1.sycdn.imooc.com/szimg/5b0cb5df00016e5405400300-360-202.jpg", "numbers": "2593", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=225", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img.mukewang.com/5b1893f90001d25702400240.jpg", "pay_price": "99", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 9900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/225", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}, {"id": "222", "name": "Node.js"}]}]}], "errorCode": 1000, "errorDesc": "\u6210\u529f", "timestamp": 1561274618249}</t>
-  </si>
-  <si>
     <t>imooc_003</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>json</t>
   </si>
   <si>
-    <t>通过</t>
-  </si>
-  <si>
     <t>imooc_004</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>{"username":"111114"}</t>
   </si>
   <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1563094047429}</t>
-  </si>
-  <si>
     <t>imooc_005</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>{"username":"111115"}</t>
   </si>
   <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1563094047603}</t>
-  </si>
-  <si>
     <t>imooc_006</t>
   </si>
   <si>
@@ -178,9 +166,6 @@
     <t>{"username":"111116"}</t>
   </si>
   <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1562483684426}</t>
-  </si>
-  <si>
     <t>imooc_007</t>
   </si>
   <si>
@@ -191,48 +176,41 @@
   </si>
   <si>
     <t>{"username":"111117"}</t>
-  </si>
-  <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1563094048035}</t>
-  </si>
-  <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1562483684951}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -248,36 +226,45 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -577,33 +564,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
-      <selection activeCell="M2" sqref="M2:M8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="11.25"/>
-    <col customWidth="1" max="2" min="2" style="4" width="8.08203125"/>
-    <col customWidth="1" max="3" min="3" style="4" width="4.83203125"/>
-    <col customWidth="1" max="5" min="4" style="4" width="11.5"/>
-    <col customWidth="1" max="6" min="6" style="4" width="12.08203125"/>
-    <col customWidth="1" max="7" min="7" style="4" width="9.08203125"/>
-    <col customWidth="1" max="8" min="8" style="4" width="13.5"/>
-    <col customWidth="1" max="10" min="9" style="4" width="10"/>
-    <col customWidth="1" max="11" min="11" style="4" width="17.5"/>
-    <col customWidth="1" max="12" min="12" style="3" width="6.58203125"/>
-    <col customWidth="1" max="14" min="14" style="4" width="16.33203125"/>
+    <col min="1" max="1" width="11.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.08203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.08203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="10" width="10" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.5" r="2" s="4" spans="1:14">
+    <row r="2" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -675,245 +658,211 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29.15" r="3" s="4" spans="1:14">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="B4" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="75.65000000000001" r="4" s="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="B5" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="42" r="5" s="4" spans="1:14">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N5"/>
     </row>
-    <row customHeight="1" ht="42" r="6" s="4" spans="1:14">
+    <row r="6" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N6"/>
     </row>
-    <row customHeight="1" ht="42" r="7" s="4" spans="1:14">
+    <row r="7" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N7"/>
     </row>
-    <row customHeight="1" ht="42" r="8" s="4" spans="1:14">
+    <row r="8" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>59</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N8"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://www.imooc.com/login/mobile" ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" display="http://www.imooc.com/login/mobile" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>